--- a/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
+++ b/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
@@ -784,15 +784,11 @@
           <t>民族</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2074,15 +2070,11 @@
           <t>实际住院天数</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2125,15 +2117,11 @@
           <t>住院总费用</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>30087.32</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>14202.49</t>
-        </is>
+      <c r="F31" t="n">
+        <v>30087.32</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14202.49</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2497,16 +2485,8 @@
           <t>姓名缩写</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>文本</t>
@@ -3066,15 +3046,11 @@
           <t>离院方式</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3126,15 +3102,11 @@
           <t>是否有出院31日内再住院计划</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3327,15 +3299,11 @@
           <t>主要诊断入院病情</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -4020,15 +3988,11 @@
           <t>医疗付费方式</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -4086,15 +4050,11 @@
           <t>住院总费用</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>30087.32</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>14202.49</t>
-        </is>
+      <c r="F28" t="n">
+        <v>30087.32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>14202.49</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -4137,15 +4097,11 @@
           <t>住院总费用其中自付金额</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>30087.32</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>14202.49</t>
-        </is>
+      <c r="F29" t="n">
+        <v>30087.32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14202.49</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -4188,15 +4144,11 @@
           <t>1.一般医疗服务费</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2520</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
+      <c r="F30" t="n">
+        <v>2520</v>
+      </c>
+      <c r="G30" t="n">
+        <v>990</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -4239,15 +4191,11 @@
           <t>2.一般治疗操作费</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6365.5</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2960.0</t>
-        </is>
+      <c r="F31" t="n">
+        <v>6365.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2960</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4290,15 +4238,11 @@
           <t>3.护理费</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="F32" t="n">
+        <v>700</v>
+      </c>
+      <c r="G32" t="n">
+        <v>300</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4341,15 +4285,11 @@
           <t>4.综合医疗服务类其他费用</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="F33" t="n">
+        <v>126</v>
+      </c>
+      <c r="G33" t="n">
+        <v>54</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4392,15 +4332,11 @@
           <t>5.病理诊断费</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3640</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F34" t="n">
+        <v>3640</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4443,15 +4379,11 @@
           <t>6.实验室诊断费</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>3992</t>
-        </is>
+      <c r="F35" t="n">
+        <v>4581</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3992</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4494,15 +4426,11 @@
           <t>7.影像学诊断费</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>710</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
+      <c r="F36" t="n">
+        <v>710</v>
+      </c>
+      <c r="G36" t="n">
+        <v>418</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4545,15 +4473,11 @@
           <t>8.临床诊断项目费</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F37" t="n">
+        <v>495</v>
+      </c>
+      <c r="G37" t="n">
+        <v>45</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -4596,15 +4520,11 @@
           <t>9.非手术治疗项目费</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -4647,15 +4567,11 @@
           <t>其中：临床物理治疗费</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -4698,15 +4614,11 @@
           <t>10.手术治疗费</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -4749,15 +4661,11 @@
           <t>其中：麻醉费</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4800,15 +4708,11 @@
           <t>其中：手术费</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -4851,15 +4755,11 @@
           <t>11.康复费</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -4902,15 +4802,11 @@
           <t>12.中医治疗费</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4953,15 +4849,11 @@
           <t>13.西药费</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>9687.63</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>3787.34</t>
-        </is>
+      <c r="F45" t="n">
+        <v>9687.629999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3787.34</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -5004,15 +4896,11 @@
           <t>其中：抗菌药物费</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7230.58</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>198.56</t>
-        </is>
+      <c r="F46" t="n">
+        <v>7230.58</v>
+      </c>
+      <c r="G46" t="n">
+        <v>198.56</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5055,15 +4943,11 @@
           <t>14.中成药费</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>27.5</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="F47" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -5106,15 +4990,11 @@
           <t>15.中草药费</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -5157,15 +5037,11 @@
           <t>16.血费</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -5208,15 +5084,11 @@
           <t>17.白蛋白类制品费</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -5259,15 +5131,11 @@
           <t>18.球蛋白类制品费</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -5310,15 +5178,11 @@
           <t>19.凝血因子类制品费</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -5361,15 +5225,11 @@
           <t>20.细胞因子类制品费</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -5412,15 +5272,11 @@
           <t>21.检查用一次性医用材料费</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>34.4</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="F54" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -5463,15 +5319,11 @@
           <t>22.治疗用一次性医用材料费</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1197.23</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1656.15</t>
-        </is>
+      <c r="F55" t="n">
+        <v>1197.23</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1656.15</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -5514,15 +5366,11 @@
           <t>23.手术用一次性医用材料费</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="F56" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5565,15 +5413,11 @@
           <t>24.其他费：</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>

--- a/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
+++ b/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
@@ -796,11 +796,15 @@
           <t>民族</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2082,11 +2086,15 @@
           <t>实际住院天数</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2129,11 +2137,15 @@
           <t>住院总费用</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>30087.32</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14202.49</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30087.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>14202.49</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -14754,8 +14766,16 @@
           <t>进重症监护室时间</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>日期</t>
@@ -14801,8 +14821,16 @@
           <t>出重症监护室时间</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>日期</t>
@@ -14848,11 +14876,15 @@
           <t>离院方式</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -14904,11 +14936,15 @@
           <t>是否有出院31日内再住院计划</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -14956,8 +14992,16 @@
           <t>出院31天再住院计划目的</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>行下一疗程化疗</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>化疗</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>文本</t>
@@ -15101,11 +15145,15 @@
           <t>主要诊断入院病情</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -15203,8 +15251,16 @@
           <t>其他诊断诊断名称</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>腹腔积液</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>文本</t>
@@ -15297,8 +15353,16 @@
           <t>其他诊断入院病情</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>单选</t>
@@ -15347,8 +15411,16 @@
           <t>病理诊断名称</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>文本</t>
@@ -15492,8 +15564,16 @@
           <t>手术及操作日期</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>文本</t>
@@ -15790,11 +15870,15 @@
           <t>医疗付费方式</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -15852,11 +15936,15 @@
           <t>住院总费用</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>30087.32</v>
-      </c>
-      <c r="G28" t="n">
-        <v>14202.49</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>30087.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>14202.49</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -15899,11 +15987,15 @@
           <t>住院总费用其中自付金额</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>30087.32</v>
-      </c>
-      <c r="G29" t="n">
-        <v>14202.49</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30087.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>14202.49</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -15946,11 +16038,15 @@
           <t>1.一般医疗服务费</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>2520</v>
-      </c>
-      <c r="G30" t="n">
-        <v>990</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -15993,11 +16089,15 @@
           <t>2.一般治疗操作费</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>6365.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2960</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6365.5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2960.0</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -16040,11 +16140,15 @@
           <t>3.护理费</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>700</v>
-      </c>
-      <c r="G32" t="n">
-        <v>300</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>700.0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -16087,11 +16191,15 @@
           <t>4.综合医疗服务类其他费用</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>126</v>
-      </c>
-      <c r="G33" t="n">
-        <v>54</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -16134,11 +16242,15 @@
           <t>5.病理诊断费</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>3640</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -16181,11 +16293,15 @@
           <t>6.实验室诊断费</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>4581</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3992</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4581.0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3992.0</t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -16228,11 +16344,15 @@
           <t>7.影像学诊断费</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>710</v>
-      </c>
-      <c r="G36" t="n">
-        <v>418</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -16275,11 +16395,15 @@
           <t>8.临床诊断项目费</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>495</v>
-      </c>
-      <c r="G37" t="n">
-        <v>45</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -16322,11 +16446,15 @@
           <t>9.非手术治疗项目费</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -16369,11 +16497,15 @@
           <t>其中：临床物理治疗费</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -16416,11 +16548,15 @@
           <t>10.手术治疗费</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -16463,11 +16599,15 @@
           <t>其中：麻醉费</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -16510,11 +16650,15 @@
           <t>其中：手术费</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -16557,11 +16701,15 @@
           <t>11.康复费</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -16604,11 +16752,15 @@
           <t>12.中医治疗费</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -16651,11 +16803,15 @@
           <t>13.西药费</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>9687.629999999999</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3787.34</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9687.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3787.34</t>
+        </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -16698,11 +16854,15 @@
           <t>其中：抗菌药物费</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>7230.58</v>
-      </c>
-      <c r="G46" t="n">
-        <v>198.56</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7230.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>198.56</t>
+        </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -16745,11 +16905,15 @@
           <t>14.中成药费</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -16792,11 +16956,15 @@
           <t>15.中草药费</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -16839,11 +17007,15 @@
           <t>16.血费</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -16886,11 +17058,15 @@
           <t>17.白蛋白类制品费</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -16933,11 +17109,15 @@
           <t>18.球蛋白类制品费</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -16980,11 +17160,15 @@
           <t>19.凝血因子类制品费</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -17027,11 +17211,15 @@
           <t>20.细胞因子类制品费</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -17074,11 +17262,15 @@
           <t>21.检查用一次性医用材料费</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>34.4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -17121,11 +17313,15 @@
           <t>22.治疗用一次性医用材料费</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>1197.23</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1656.15</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1197.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1656.15</t>
+        </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -17168,11 +17364,15 @@
           <t>23.手术用一次性医用材料费</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -17215,11 +17415,15 @@
           <t>24.其他费：</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>

--- a/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
+++ b/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>Unnamed:2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -2719,22 +2719,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>Unnamed:6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>Unnamed:7</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>Unnamed:8</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>Unnamed:9</t>
         </is>
       </c>
     </row>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>Unnamed:11</t>
         </is>
       </c>
     </row>
@@ -38596,7 +38596,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>Unnamed:2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
+++ b/dataset/Results/VTE-PTE-CTEPH研究数据库1.xlsx
@@ -537,12 +537,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>男</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>男</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1943/8/5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1943/8/5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1123,16 +1123,8 @@
           <t>现住地址-省（自治区、直辖市）</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>下拉</t>
@@ -1211,16 +1203,8 @@
           <t>婚姻状况</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>单选</t>
@@ -1375,16 +1359,8 @@
           <t>入院科室</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>单选</t>
@@ -1837,8 +1813,16 @@
           <t>出院科室</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>单选</t>
@@ -2231,16 +2215,8 @@
           <t>姓名缩写</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>文本</t>
@@ -15203,8 +15179,16 @@
           <t>其他诊断</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>单选</t>
@@ -15302,16 +15286,8 @@
           <t>其他诊断疾病编码</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>文本</t>
@@ -15462,16 +15438,8 @@
           <t>疾病编码</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>文本</t>
